--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z131"/>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 2443-2023</t>
+          <t>A 14442-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44943</v>
+        <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -612,15 +612,107 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Grönfink
+Mindre hackspett
+Huggorm</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 2443-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Större brunfladdermus
@@ -628,134 +720,42 @@
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 14442-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45741.51986111111</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Grönfink
-Mindre hackspett
-Huggorm</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 28233-2022</t>
+          <t>A 2440-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44746</v>
+        <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,19 +767,14 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -788,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -797,133 +792,138 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Blåmossa
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 28233-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Ask
 Björksplintborre
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2440-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Blåmossa
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45320</v>
+        <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,50 +1068,46 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2447-2023</t>
+          <t>A 22268-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44943</v>
+        <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,13 +1120,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>16.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1158,32 +1154,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
+          <t>Havstulpanlav
+Stubbspretmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
     </row>
@@ -1197,7 +1193,7 @@
         <v>45282</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,14 +1276,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 22268-2022</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44712</v>
+        <v>45320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,16 +1296,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>16.6</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1324,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1334,32 +1330,36 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav
-Stubbspretmossa</t>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45057</v>
+        <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45350</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45145</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44746</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45726</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45345</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>44364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45217</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45897</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45216</v>
+        <v>44746</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>45897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>45917.86079861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45917.8653125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4105,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>44712</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4333,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4390,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>44746</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45350</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46034</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45929</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>45929</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45282</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44895</v>
+        <v>44517</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>44895</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44721</v>
+        <v>44895.45375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44517</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>44805</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>44943</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44805</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44895</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44943</v>
+        <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44895</v>
+        <v>45216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>45345</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45145</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45350</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45329</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45092</v>
+        <v>45057</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>46034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,13 +6518,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6561,14 +6556,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6581,7 +6576,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>10.3</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6618,14 +6613,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6638,7 +6633,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6675,14 +6670,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45028</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,13 +6689,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6737,14 +6727,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6757,7 +6747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6794,14 +6784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6851,14 +6841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44364</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6908,14 +6898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6928,7 +6918,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6965,14 +6955,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44712</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6975,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7022,14 +7012,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7042,7 +7032,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7079,14 +7069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7136,14 +7126,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7146,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7193,14 +7183,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7213,7 +7203,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7250,14 +7240,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44746</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,7 +7260,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7314,7 +7304,7 @@
         <v>45441</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,14 +7354,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7374,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7421,14 +7411,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45329</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7431,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7478,14 +7468,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>44959</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7498,7 +7488,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7535,14 +7525,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7545,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7592,14 +7582,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44959</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7612,7 +7602,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7649,14 +7639,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7668,8 +7658,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7706,14 +7701,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45300</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7721,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7763,14 +7758,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7778,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7820,14 +7815,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7840,7 +7835,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7877,14 +7872,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7892,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7934,14 +7929,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45282</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7949,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7991,14 +7986,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45028</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8010,8 +8005,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8273,17 +8273,17 @@
       </c>
       <c r="R130" s="2" t="inlineStr"/>
     </row>
-    <row r="131">
+    <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45726</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8329,6 +8329,63 @@
         <v>0</v>
       </c>
       <c r="R131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A 21836-2022</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>44710.9250462963</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44746</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>45282</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45639.55207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45386.3653587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45216.66917824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45145</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45887.37728009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45887.37248842593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45805.3218287037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45055.61012731482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45741.47278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45812.64487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45817.65983796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44746</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45817.6285300926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45824.60599537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45723.64142361111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45909.55841435185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>45734.67028935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44809.47324074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45919.44319444444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>45917.86079861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45917.8653125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44712</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>45922.41402777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45922.38008101852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45922.54346064815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45216.6400462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44746</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45350</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44623.45605324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45926.39857638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45834.39827546296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45929.69758101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45929</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45835.45971064815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45835.46107638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44517</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44895</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44895.45375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44895.54767361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44895.58527777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44805</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44943</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44517.57920138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44462.90412037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44970.65201388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45216.66064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44828.34606481482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45588.69111111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45971.47983796296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45587.47180555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45975.69769675926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45345</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45982.55194444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45982.57108796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45982.50081018519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45412.47715277778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45057</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>46034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>46036.61236111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>45092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44700.6828125</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>46002.62560185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45170.62814814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>46002.63146990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>46002.40396990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>46008.56954861111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>46008.58908564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>46008.59997685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>46008.60609953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>46008.57900462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>46008.59184027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45441</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45392.56983796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45329</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44959</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>45152.57416666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>46059.88509259259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45565.56991898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45589.35490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45476.64726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45476.69767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45282</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45028</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45594.41935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44746.55107638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44301.31224537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45726</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44710.9250462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44746</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>45282</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45639.55207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45386.3653587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45216.66917824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45145</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45887.37728009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45887.37248842593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45805.3218287037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45055.61012731482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45741.47278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45812.64487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45817.65983796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44746</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45817.6285300926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45824.60599537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45723.64142361111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45909.55841435185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>45734.67028935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44809.47324074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45919.44319444444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>45917.86079861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45917.8653125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44712</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>45922.41402777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45922.38008101852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45922.54346064815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45216.6400462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44746</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45350</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44623.45605324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45926.39857638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45834.39827546296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45929.69758101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45929</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45835.45971064815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45835.46107638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44517</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44895</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44895.45375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44895.54767361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44895.58527777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44805</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44943</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44517.57920138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44462.90412037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44970.65201388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45216.66064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44828.34606481482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45588.69111111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45971.47983796296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45587.47180555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45975.69769675926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45345</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45982.55194444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45982.57108796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45982.50081018519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45412.47715277778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45057</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>46034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>46036.61236111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>45092</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44700.6828125</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>46002.62560185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45170.62814814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>46002.63146990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>46002.40396990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>46008.56954861111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>46008.58908564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>46008.59997685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>46008.60609953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>46008.57900462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>46008.59184027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45441</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45392.56983796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45329</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44959</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>45152.57416666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>46059.88509259259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45565.56991898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45589.35490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45476.64726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45476.69767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45282</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45028</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45594.41935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44746.55107638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44301.31224537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45726</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44710.9250462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 14442-2025</t>
+          <t>A 2443-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45741.51986111111</v>
+        <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -612,15 +612,103 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Större brunfladdermus
+Vanlig padda
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 14442-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45741.51986111111</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Ask
 Grönfink
@@ -628,134 +716,46 @@
 Huggorm</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 2443-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Större brunfladdermus
-Vanlig padda
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2440-2023</t>
+          <t>A 28233-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44943</v>
+        <v>44746</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,14 +767,19 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -783,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -792,138 +797,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Björksplintborre
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2440-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Blåmossa
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 28233-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44746</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Björksplintborre
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2447-2023</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44943</v>
+        <v>45320</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,121 +1068,125 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 2447-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Dolkstekelsglasvinge
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 22268-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav
-Stubbspretmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1193,7 +1197,7 @@
         <v>45282</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,14 +1280,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 22268-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45320</v>
+        <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1296,16 +1300,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>16.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1320,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1330,36 +1334,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
+          <t>Havstulpanlav
+Stubbspretmossa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2623,14 +2623,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21133-2022</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44704</v>
+        <v>44746</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45217</v>
+        <v>45350</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 21133-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>44704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45345</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45145</v>
+        <v>45216</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44364</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44746</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45897</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45092</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.800000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3896,8 +3896,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3939,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45897</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3959,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +3996,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4016,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4053,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4073,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4110,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44712</v>
+        <v>45028</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4124,8 +4129,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4172,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4192,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4229,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4249,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4286,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4306,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4343,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4363,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4400,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44746</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4420,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4457,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45350</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4477,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4514,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4534,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4571,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4591,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4628,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4648,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4685,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4705,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4742,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45929</v>
+        <v>44364</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4762,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4799,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4819,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4856,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4876,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4910,7 +4920,7 @@
         <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4960,14 +4970,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44517</v>
+        <v>44895</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4990,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5027,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44895</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5047,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5084,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44721</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5104,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5141,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5161,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5198,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>44517</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5218,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5255,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44805</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5275,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5312,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44943</v>
+        <v>44805</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5332,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5369,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>44895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5389,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5426,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5446,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5483,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44895</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5503,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5540,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44895</v>
+        <v>44943</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5560,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5597,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>44895.45375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5617,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5654,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44721</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5674,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5711,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>44895</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5731,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5768,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45216</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5788,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5825,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45726</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5845,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5882,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5902,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5939,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5959,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5986,14 +5996,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6016,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6050,7 +6060,7 @@
         <v>45587.47180555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6100,14 +6110,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>45282</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6130,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6167,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6187,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6224,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6244,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6281,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6301,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6338,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6358,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6395,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6415,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6452,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45057</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6472,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6509,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46034</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6529,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6556,14 +6566,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6586,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6613,14 +6623,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45092</v>
+        <v>44712</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6643,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6670,14 +6680,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6700,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6727,14 +6737,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>46034</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6757,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6784,14 +6794,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6814,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6841,14 +6851,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6905,7 +6915,7 @@
         <v>46002.40396990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6955,14 +6965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6975,7 +6985,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7012,14 +7022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7042,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7069,14 +7079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7099,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7126,14 +7136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7156,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7183,14 +7193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,7 +7213,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7240,14 +7250,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,7 +7270,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7297,14 +7307,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45441</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7327,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7354,14 +7364,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,7 +7384,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7411,14 +7421,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45329</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,7 +7441,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7468,14 +7478,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44959</v>
+        <v>44746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7488,7 +7498,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7525,14 +7535,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>45329</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,7 +7555,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7589,7 +7599,7 @@
         <v>46059.88509259259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7639,14 +7649,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>45441</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7658,13 +7668,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7708,7 +7713,7 @@
         <v>45589.35490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,14 +7763,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7778,7 +7783,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7835,7 +7840,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45350</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7892,7 +7897,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7929,14 +7934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45282</v>
+        <v>44959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45028</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8005,13 +8010,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>45300</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45300</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45726</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 2443-2023</t>
+          <t>A 14442-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44943</v>
+        <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -612,15 +612,107 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Grönfink
+Mindre hackspett
+Huggorm</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 2443-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Större brunfladdermus
@@ -628,134 +720,42 @@
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 14442-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45741.51986111111</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Grönfink
-Mindre hackspett
-Huggorm</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 28233-2022</t>
+          <t>A 2440-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44746</v>
+        <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,19 +767,14 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -788,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -797,133 +792,138 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Blåmossa
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 28233-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Ask
 Björksplintborre
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2440-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Blåmossa
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45320</v>
+        <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,50 +1068,46 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2447-2023</t>
+          <t>A 22268-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44943</v>
+        <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,13 +1120,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>16.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1158,32 +1154,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
+          <t>Havstulpanlav
+Stubbspretmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
     </row>
@@ -1197,7 +1193,7 @@
         <v>45282</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,14 +1276,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 22268-2022</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44712</v>
+        <v>45320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,16 +1296,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>16.6</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1324,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1334,32 +1330,36 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav
-Stubbspretmossa</t>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2623,14 +2623,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 21133-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44746</v>
+        <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45350</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 21133-2022</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44704</v>
+        <v>45897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45345</v>
+        <v>45217</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45217</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45216</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>45726</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45145</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45145</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45092</v>
+        <v>44364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3896,13 +3896,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3939,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45897</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3959,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3996,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4016,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>10.3</v>
+        <v>4.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4053,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4073,7 +4068,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4110,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45028</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,13 +4124,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4172,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4192,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4229,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4249,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4286,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4306,7 +4296,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4343,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4363,7 +4353,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4400,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4420,7 +4410,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4457,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4477,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4514,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4534,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4571,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45929</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4591,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4628,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4648,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4685,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>44712</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4742,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44364</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>44746</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4819,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4856,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45929</v>
+        <v>45350</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4876,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4920,7 +4910,7 @@
         <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4970,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44895</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5027,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>44517</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5047,7 +5037,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5084,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44721</v>
+        <v>44895</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5104,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5141,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>44895.45375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5161,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5198,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44517</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5218,7 +5208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5255,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5275,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5312,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44805</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5332,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5369,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44895</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5389,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5426,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45057</v>
+        <v>44805</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5446,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5483,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5503,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5547,7 +5537,7 @@
         <v>44943</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5597,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5617,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5654,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5674,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5711,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>44895</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5731,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5768,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5788,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5825,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45726</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5845,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5882,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>44721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5939,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5959,7 +5949,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5996,14 +5986,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>45216</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6016,7 +6006,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6053,14 +6043,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6073,7 +6063,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6110,14 +6100,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45282</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6130,7 +6120,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6167,14 +6157,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45350</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6187,7 +6177,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6224,14 +6214,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6244,7 +6234,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6281,14 +6271,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>45345</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6301,7 +6291,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6338,14 +6328,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6358,7 +6348,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6395,14 +6385,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6415,7 +6405,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6452,14 +6442,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6472,7 +6462,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6509,14 +6499,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,7 +6519,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6566,14 +6556,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45057</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6586,7 +6576,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6623,14 +6613,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44712</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6643,7 +6633,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6680,14 +6670,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6700,7 +6690,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6744,7 +6734,7 @@
         <v>46034</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6794,14 +6784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6851,14 +6841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45092</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6908,14 +6898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6928,7 +6918,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6965,14 +6955,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6975,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7029,7 +7019,7 @@
         <v>46002.62560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7079,14 +7069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7136,14 +7126,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7146,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7193,14 +7183,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7213,7 +7203,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7250,14 +7240,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,7 +7260,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7307,14 +7297,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7327,7 +7317,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7364,14 +7354,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7374,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7421,14 +7411,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7431,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7478,14 +7468,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44746</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7498,7 +7488,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7535,14 +7525,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45329</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7545,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7592,14 +7582,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7612,7 +7602,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7649,14 +7639,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45441</v>
+        <v>44959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7669,7 +7659,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7706,14 +7696,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7716,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7763,14 +7753,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45329</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7773,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7820,14 +7810,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7840,7 +7830,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7877,14 +7867,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,8 +7886,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7934,14 +7929,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44959</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7949,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7991,14 +7986,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8011,7 +8006,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8043,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45300</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8063,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8100,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45350</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8120,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8157,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45282</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8177,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8214,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45028</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8238,8 +8233,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45300</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,14 +748,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2440-2023</t>
+          <t>A 28233-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44943</v>
+        <v>44746</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,14 +767,19 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -783,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -792,138 +797,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Björksplintborre
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2440-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Blåmossa
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 28233-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44746</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Björksplintborre
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2447-2023</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44943</v>
+        <v>45320</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,32 +1068,36 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1111,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,14 +1190,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 64855-2023</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45282</v>
+        <v>44943</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1206,16 +1210,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1230,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1240,129 +1244,125 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 64855-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Svart taggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3543-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45320</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2110,14 +2110,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 468-2022</t>
+          <t>A 29101-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44566</v>
+        <v>44750.41521990741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2167,14 +2167,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22240-2022</t>
+          <t>A 28249-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44712</v>
+        <v>44355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15138-2022</t>
+          <t>A 69614-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44658.44114583333</v>
+        <v>44532</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2281,14 +2281,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 28249-2021</t>
+          <t>A 69628-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44355</v>
+        <v>44532</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29101-2022</t>
+          <t>A 468-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44750.41521990741</v>
+        <v>44566</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2452,14 +2452,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 69614-2021</t>
+          <t>A 22240-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44532</v>
+        <v>44712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 69628-2021</t>
+          <t>A 26345-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44532</v>
+        <v>44735</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26345-2022</t>
+          <t>A 21133-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44735</v>
+        <v>44704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21133-2022</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44704</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45897</v>
+        <v>45350</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 15138-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45217</v>
+        <v>44658.44114583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>44746</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>45345</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45217</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45726</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45216</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.9</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45282</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45145</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45350</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45145</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44364</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45092</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44746</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,8 +4067,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>7.4</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4110,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4130,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4167,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4187,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4224,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4244,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4281,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4301,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4338,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4358,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4395,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45028</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4409,8 +4414,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4457,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4477,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4514,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4534,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4571,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45929</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4591,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4628,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4648,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4682,7 +4692,7 @@
         <v>44712</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4732,14 +4742,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4762,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4799,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44746</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4819,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4856,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45350</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4876,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4913,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4923,7 +4933,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4960,14 +4970,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4990,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5027,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44517</v>
+        <v>44959</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5047,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5084,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44895</v>
+        <v>44746</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5104,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5141,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5161,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5198,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>45057</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5218,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5255,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5275,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5312,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>45726</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5332,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5369,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5389,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5426,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44805</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5446,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5483,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5503,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5540,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44943</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5560,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5597,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>45441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5617,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5654,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5674,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5711,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44895</v>
+        <v>45300</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5731,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5768,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44895</v>
+        <v>45897</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5788,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5825,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5845,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5882,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44721</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5902,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5939,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5959,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5986,14 +5996,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45216</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6016,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6043,14 +6053,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6073,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6100,14 +6110,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6130,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6167,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6187,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6224,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6244,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6281,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45345</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6301,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6338,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6358,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6395,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6415,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6452,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45929</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6472,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6509,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6529,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6556,14 +6566,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45057</v>
+        <v>44895</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6586,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6613,14 +6623,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6643,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6670,14 +6680,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>44721</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6700,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6727,14 +6737,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46034</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6757,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6784,14 +6794,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>44517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6814,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6841,14 +6851,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45092</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6898,14 +6908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>44805</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6918,7 +6928,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6955,14 +6965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>44895</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6975,7 +6985,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7012,14 +7022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7042,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7069,14 +7079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>44943</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7099,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7126,14 +7136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>44895.45375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7156,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7183,14 +7193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,7 +7213,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7240,14 +7250,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>44895</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,7 +7270,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7297,14 +7307,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7327,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7354,14 +7364,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,7 +7384,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7411,14 +7421,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45441</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,7 +7441,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7468,14 +7478,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7525,14 +7535,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,7 +7555,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7582,14 +7592,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7602,7 +7612,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7639,14 +7649,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44959</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7659,7 +7669,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7696,14 +7706,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>46034</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7716,7 +7726,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7753,14 +7763,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45329</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7773,7 +7783,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7810,14 +7820,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7830,7 +7840,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7867,14 +7877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7886,13 +7896,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7929,14 +7934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8006,7 +8011,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8043,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8063,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8100,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45350</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8120,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8157,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45282</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8177,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8214,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45028</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8233,13 +8238,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>45329</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>10.3</v>
+        <v>6.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45300</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,14 +748,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 28233-2022</t>
+          <t>A 2440-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44746</v>
+        <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,19 +767,14 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -788,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -797,133 +792,138 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Blåmossa
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 28233-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Ask
 Björksplintborre
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2440-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Blåmossa
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 64855-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45320</v>
+        <v>45282</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,301 +1068,301 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 2447-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 22268-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Havstulpanlav
+Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3543-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Dolkstekelsglasvinge</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 22268-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav
-Stubbspretmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 2447-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 64855-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45282</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Svart taggsvamp</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2110,14 +2110,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 29101-2022</t>
+          <t>A 468-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44750.41521990741</v>
+        <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2167,14 +2167,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 28249-2021</t>
+          <t>A 22240-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44355</v>
+        <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 69614-2021</t>
+          <t>A 15138-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44532</v>
+        <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2281,14 +2281,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 69628-2021</t>
+          <t>A 28249-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44532</v>
+        <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 468-2022</t>
+          <t>A 29101-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44566</v>
+        <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2452,14 +2452,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22240-2022</t>
+          <t>A 69614-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44712</v>
+        <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 26345-2022</t>
+          <t>A 69628-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44735</v>
+        <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21133-2022</t>
+          <t>A 26345-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44704</v>
+        <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 21133-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45350</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 15138-2022</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44658.44114583333</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44746</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45345</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45217</v>
+        <v>45145</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45216</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45282</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>44364</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45350</v>
+        <v>44746</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45145</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45897</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45092</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>44712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4067,13 +4067,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4110,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4130,7 +4125,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4167,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>44746</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4187,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4224,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>45350</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4244,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10.3</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4281,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4301,7 +4296,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4338,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4358,7 +4353,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4395,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45028</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4414,13 +4409,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4457,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45216</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4477,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4514,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4534,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4571,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4591,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4628,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4648,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4685,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44712</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4742,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4819,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4856,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4876,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4913,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4933,7 +4923,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4970,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4990,7 +4980,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5027,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44959</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5047,7 +5037,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5084,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44746</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5104,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5141,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44364</v>
+        <v>45929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5161,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5198,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45057</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5218,7 +5208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5255,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>44517</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5275,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5312,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45726</v>
+        <v>44895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5332,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5369,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>44895.45375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5389,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5426,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5446,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5483,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5503,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5540,14 +5530,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>44805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5560,7 +5550,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5597,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45441</v>
+        <v>44943</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5617,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5654,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5674,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5711,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45300</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5731,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5768,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45897</v>
+        <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5788,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5825,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>44895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5845,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5882,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5939,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>44721</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5959,7 +5949,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5996,14 +5986,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6016,7 +6006,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6053,14 +6043,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6073,7 +6063,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6110,14 +6100,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45345</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6130,7 +6120,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6167,14 +6157,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6187,7 +6177,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6224,14 +6214,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45057</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6244,7 +6234,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.2</v>
+        <v>5.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6281,14 +6271,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6301,7 +6291,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6338,14 +6328,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6358,7 +6348,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6395,14 +6385,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6415,7 +6405,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6452,14 +6442,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45929</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6472,7 +6462,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.699999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6509,14 +6499,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,7 +6519,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6566,14 +6556,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44895</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6586,7 +6576,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6623,14 +6613,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6643,7 +6633,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6680,14 +6670,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44721</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6700,7 +6690,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6737,14 +6727,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6757,7 +6747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6794,14 +6784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44517</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6851,14 +6841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>44959</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6908,14 +6898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44805</v>
+        <v>46034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6928,7 +6918,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6965,14 +6955,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44895</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6975,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7022,14 +7012,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7042,7 +7032,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7079,14 +7069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44943</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7136,14 +7126,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44895.45375</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7146,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7193,14 +7183,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7213,7 +7203,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7250,14 +7240,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44895</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,14 +7297,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7327,7 +7317,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7364,14 +7354,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7374,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7421,14 +7411,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7431,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7478,14 +7468,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,14 +7525,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7545,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7592,14 +7582,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7611,8 +7601,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7649,14 +7644,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,14 +7701,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46034</v>
+        <v>45329</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7721,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7763,14 +7758,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7778,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7820,14 +7815,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7840,7 +7835,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7877,14 +7872,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7892,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7934,14 +7929,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45282</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7949,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7991,14 +7986,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45028</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8010,8 +8005,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>45300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45329</v>
+        <v>45726</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.9</v>
+        <v>0.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44746</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 64855-2023</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45282</v>
+        <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,125 +1068,125 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 64855-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Svart taggsvamp</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 2447-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45217</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45145</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45897</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44364</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44746</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>44364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45897</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44712</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44746</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45350</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>44746</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45216</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45929</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>44517</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44517</v>
+        <v>44895</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44895</v>
+        <v>44895.45375</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>44805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44805</v>
+        <v>44943</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44943</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>44895</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44895</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>44721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44721</v>
+        <v>44712</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>44970.65201388889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6043,14 +6043,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45345</v>
+        <v>44746</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45350</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45057</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45092</v>
+        <v>45216</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>45329</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6556,14 +6556,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6613,14 +6613,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6670,14 +6670,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6727,14 +6727,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45441</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6784,14 +6784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6841,14 +6841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44959</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6905,7 +6905,7 @@
         <v>46034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>46036.61236111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7012,14 +7012,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7069,14 +7069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>45345</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7126,14 +7126,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7183,14 +7183,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>45057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7240,14 +7240,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7297,14 +7297,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7354,14 +7354,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7411,14 +7411,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7468,14 +7468,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7525,14 +7525,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>44959</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7582,14 +7582,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,13 +7601,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7644,14 +7639,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,8 +7658,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45329</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         <v>45476.64726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45476.69767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45282</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45028</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45594.41935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44746.55107638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44301.31224537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45726</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44710.9250462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44746</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,14 +1100,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 64855-2023</t>
+          <t>A 22268-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45282</v>
+        <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1120,16 +1120,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>16.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1154,215 +1154,215 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Havstulpanlav
+Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 3543-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 64855-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Svart taggsvamp</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 22268-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav
-Stubbspretmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3543-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45320</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>45887.37728009259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45145</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45897</v>
+        <v>45145</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44364</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>44364</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44746</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>44746</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45929</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>44517</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>44895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>44895.45375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4960,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45929</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>44805</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44517</v>
+        <v>44943</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5245,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44895</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>44895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44805</v>
+        <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44943</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>44721</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44895</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44895</v>
+        <v>44712</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44721</v>
+        <v>44746</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44712</v>
+        <v>45350</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45216</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44746</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45350</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>46034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45216</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45329</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6556,14 +6556,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6613,14 +6613,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6670,14 +6670,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>45345</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6727,14 +6727,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6784,14 +6784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6841,14 +6841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6898,14 +6898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46034</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6955,14 +6955,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7012,14 +7012,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7069,14 +7069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45345</v>
+        <v>45329</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7126,14 +7126,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7183,14 +7183,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45057</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7247,7 +7247,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44700.6828125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45170.62814814815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>45392.56983796296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44959</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>45152.57416666667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45565.56991898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45589.35490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45476.64726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45476.69767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45282</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45028</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45594.41935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44746.55107638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44301.31224537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45726</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44710.9250462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 14442-2025</t>
+          <t>A 2443-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45741.51986111111</v>
+        <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -612,15 +612,103 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Större brunfladdermus
+Vanlig padda
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 14442-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45741.51986111111</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Ask
 Grönfink
@@ -628,134 +716,46 @@
 Huggorm</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 2443-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Större brunfladdermus
-Vanlig padda
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2440-2023</t>
+          <t>A 28233-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44943</v>
+        <v>44746</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,14 +767,19 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -783,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -792,138 +797,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Björksplintborre
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2440-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Blåmossa
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 28233-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44746</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Björksplintborre
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,14 +1100,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 22268-2022</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44712</v>
+        <v>45320</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1120,16 +1120,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.6</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1154,215 +1154,215 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 64855-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Havsörn
+Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 22268-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Havstulpanlav
 Stubbspretmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 3543-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45320</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 64855-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45282</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Svart taggsvamp</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45217</v>
+        <v>44746</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45350</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45345</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>44895</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>44721</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45897</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45145</v>
+        <v>44805</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>44895</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>44943</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>44895.45375</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>44895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>45216</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45897</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44364</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44746</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45929</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44517</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44895</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44895.45375</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5074,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44805</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44943</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>45929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44895</v>
+        <v>45145</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44895</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44721</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44712</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44746</v>
+        <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.6</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45350</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5948,8 +5948,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5986,14 +5991,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6011,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>10.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6043,14 +6048,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45216</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6068,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6100,14 +6105,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45028</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6119,8 +6124,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6167,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6187,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6224,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>46034</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6244,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6281,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46034</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6301,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6338,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6358,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6395,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6415,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6452,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6472,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6509,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>44364</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6529,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6556,14 +6566,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6586,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6613,14 +6623,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6643,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6670,14 +6680,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45345</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6700,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6727,14 +6737,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6757,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6784,14 +6794,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6814,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6841,14 +6851,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6898,14 +6908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45057</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6918,7 +6928,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6955,14 +6965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>45726</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6975,7 +6985,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7012,14 +7022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7042,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7069,14 +7079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45329</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7099,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7126,14 +7136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45057</v>
+        <v>45329</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7156,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7190,7 +7200,7 @@
         <v>46059.88509259259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7240,14 +7250,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45092</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,7 +7270,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7297,14 +7307,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7327,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7354,14 +7364,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>45282</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,7 +7384,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7411,14 +7421,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45441</v>
+        <v>45350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,7 +7441,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7468,14 +7478,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7488,7 +7498,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7525,14 +7535,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44959</v>
+        <v>44712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,7 +7555,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7582,14 +7592,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7602,7 +7612,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7639,14 +7649,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7658,13 +7668,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7701,14 +7706,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,14 +7763,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7778,7 +7783,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>44746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7835,7 +7840,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45350</v>
+        <v>45441</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7892,7 +7897,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7929,14 +7934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45282</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45028</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8005,13 +8010,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>10.3</v>
+        <v>5.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45300</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>44959</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45726</v>
+        <v>45300</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 2443-2023</t>
+          <t>A 14442-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44943</v>
+        <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -612,15 +612,107 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Grönfink
+Mindre hackspett
+Huggorm</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 2443-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Större brunfladdermus
@@ -628,134 +720,42 @@
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 14442-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45741.51986111111</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Grönfink
-Mindre hackspett
-Huggorm</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 28233-2022</t>
+          <t>A 2440-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44746</v>
+        <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,19 +767,14 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -788,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -797,133 +792,138 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Blåmossa
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 28233-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Ask
 Björksplintborre
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2440-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Blåmossa
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,14 +1100,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 22268-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45320</v>
+        <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1120,16 +1120,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>16.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1154,215 +1154,215 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Havstulpanlav
+Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 3543-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Dolkstekelsglasvinge</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 64855-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45282</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>3.7</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Havsörn
 Svart taggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 64855-2023 artfynd.xlsx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 64855-2023 karta.png", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 64855-2023 FSC-klagomål.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 64855-2023 FSC-klagomål mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 64855-2023 tillsynsbegäran.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 64855-2023 tillsynsbegäran mail.docx", "A 64855-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 64855-2023 prioriterade fågelarter.docx", "A 64855-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 22268-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav
-Stubbspretmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44746</v>
+        <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45350</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45345</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45217</v>
+        <v>45145</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44895</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44721</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>44364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44517</v>
+        <v>44746</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44805</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44895</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44943</v>
+        <v>45897</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44895</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45216</v>
+        <v>44712</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>44746</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>45350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45897</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45216</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>45929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>44517</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>44895</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>44895.45375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45929</v>
+        <v>44805</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>44943</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45145</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>44721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45092</v>
+        <v>45345</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5948,13 +5948,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5991,14 +5986,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6011,7 +6006,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>10.3</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6048,14 +6043,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6068,7 +6063,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6105,14 +6100,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45028</v>
+        <v>45057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6124,13 +6119,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6167,14 +6157,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6187,7 +6177,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6224,14 +6214,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46034</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6244,7 +6234,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6281,14 +6271,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6301,7 +6291,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6338,14 +6328,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>46034</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6358,7 +6348,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6395,14 +6385,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6415,7 +6405,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6452,14 +6442,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6472,7 +6462,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6509,14 +6499,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44364</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,7 +6519,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6566,14 +6556,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6586,7 +6576,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6623,14 +6613,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6643,7 +6633,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6680,14 +6670,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6700,7 +6690,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6737,14 +6727,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6757,7 +6747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6794,14 +6784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6851,14 +6841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6908,14 +6898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45057</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6928,7 +6918,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6965,14 +6955,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45726</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6975,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7022,14 +7012,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7042,7 +7032,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7079,14 +7069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7136,14 +7126,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45329</v>
+        <v>45441</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7146,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7193,14 +7183,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7213,7 +7203,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7250,14 +7240,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>44959</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,7 +7260,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7307,14 +7297,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45329</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7327,7 +7317,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7364,14 +7354,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45282</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7374,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7421,14 +7411,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45350</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7431,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7478,14 +7468,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7497,8 +7487,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7535,14 +7530,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44712</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7550,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7592,14 +7587,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7612,7 +7607,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7649,14 +7644,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7669,7 +7664,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7706,14 +7701,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45350</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7721,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7763,14 +7758,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45282</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7778,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7820,14 +7815,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44746</v>
+        <v>45028</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7839,8 +7834,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45441</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>10.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>45300</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.4</v>
+        <v>0.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45726</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44959</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45300</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44746</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>45320</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45282</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45639.55207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45386.3653587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45145</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45216.66917824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45055.61012731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45817.6285300926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45887.37728009259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44746</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45887.37248842593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45824.60599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45741.47278935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45734.67028935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45897</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44809.47324074074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45834.39827546296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45835.45971064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45835.46107638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44712</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45216.6400462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45723.64142361111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44746</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45909.55841435185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>45350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44623.45605324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45919.44319444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45917.86079861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45917.8653125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45922.41402777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45922.38008101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45922.54346064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45216</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45216.66064814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45926.39857638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45929.69758101852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44828.34606481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44517</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44895</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44895.45375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44895.54767361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44895.58527777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44805</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44943</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44517.57920138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44462.90412037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44970.65201388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45588.69111111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45587.47180555556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45345</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45971.47983796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45412.47715277778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45975.69769675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45982.55194444444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45982.57108796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45982.50081018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>46034</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>46036.61236111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44700.6828125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45170.62814814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>46002.62560185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>46002.63146990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>46002.40396990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>46008.56954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>46008.58908564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>46008.59997685185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>46008.60609953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>46008.57900462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>46008.59184027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45441</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45392.56983796296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>44959</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45329</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45152.57416666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>46059.88509259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>45565.56991898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45589.35490740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45476.64726851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45476.69767361111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45350</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45282</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45028</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45594.41935185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45300</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>44746.55107638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>44301.31224537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45726</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44710.9250462963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45805.3218287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45812.64487268519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45817.65983796296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44746</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>45320</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45282</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>45548.58054398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45639.55207175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45386.3653587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45145</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45216.66917824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45055.61012731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45817.6285300926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45887.37728009259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44746</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45887.37248842593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45824.60599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45741.47278935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45734.67028935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45897</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44809.47324074074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45834.39827546296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45835.45971064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45835.46107638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44712</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45216.6400462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45723.64142361111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44746</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45909.55841435185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>45350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44623.45605324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45919.44319444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45917.86079861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45917.8653125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45922.41402777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45922.38008101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45922.54346064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45216</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45216.66064814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45926.39857638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45929.69758101852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44828.34606481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45931.45528935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44517</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44895</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44895.45375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44895.54767361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44895.58527777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44805</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44943</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44517.57920138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44462.90412037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44970.65201388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45588.69111111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45587.47180555556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45345</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45971.47983796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45412.47715277778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45975.69769675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45982.55194444444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45982.57108796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45982.50081018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>46034</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>46036.61236111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44700.6828125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45170.62814814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>46002.62560185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>46002.63146990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>46002.40396990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>46008.56954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>46008.58908564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>46008.59997685185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>46008.60609953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>46008.57900462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>46008.59184027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45441</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45392.56983796296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>44959</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45329</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45152.57416666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>46059.88509259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>45565.56991898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45589.35490740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45476.64726851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45476.69767361111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45350</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45282</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45028</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45594.41935185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45300</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>44746.55107638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>44301.31224537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45726</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44710.9250462963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45805.3218287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45812.64487268519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45817.65983796296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,14 +748,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2440-2023</t>
+          <t>A 28233-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44943</v>
+        <v>44746</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,14 +767,19 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -783,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -792,138 +797,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Björksplintborre
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2440-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Blåmossa
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 28233-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44746</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Björksplintborre
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2447-2023</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44943</v>
+        <v>45320</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,32 +1068,36 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1111,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,14 +1190,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45320</v>
+        <v>44943</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1206,7 +1210,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1215,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1230,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1240,36 +1244,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>45282</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1711,14 +1711,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 12978-2021</t>
+          <t>A 29106-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44271</v>
+        <v>44750.42491898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1825,14 +1825,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 29106-2022</t>
+          <t>A 12978-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44750.42491898148</v>
+        <v>44271</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>7.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1882,14 +1882,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 22300-2022</t>
+          <t>A 29176-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44712</v>
+        <v>44358.70075231481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>23.3</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1939,14 +1939,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20681-2022</t>
+          <t>A 22300-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44700.68586805555</v>
+        <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>23.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1996,14 +1996,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 29176-2021</t>
+          <t>A 13411-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44358.70075231481</v>
+        <v>44645.54630787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2053,14 +2053,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 13411-2022</t>
+          <t>A 468-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44645.54630787037</v>
+        <v>44566</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2110,14 +2110,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 468-2022</t>
+          <t>A 22240-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44566</v>
+        <v>44712</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2167,14 +2167,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22240-2022</t>
+          <t>A 15138-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44712</v>
+        <v>44658.44114583333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15138-2022</t>
+          <t>A 28249-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44658.44114583333</v>
+        <v>44355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>5.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2281,14 +2281,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 28249-2021</t>
+          <t>A 29101-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44355</v>
+        <v>44750.41521990741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2338,14 +2338,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52777-2021</t>
+          <t>A 20681-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44467</v>
+        <v>44700.68586805555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2395,14 +2395,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29101-2022</t>
+          <t>A 52777-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44750.41521990741</v>
+        <v>44467</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45217</v>
+        <v>45350</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>44746</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>10.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45145</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45345</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45028</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,8 +3041,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3084,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45217</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3104,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3141,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3161,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3198,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44364</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3218,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3255,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44746</v>
+        <v>45145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3275,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.4</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3312,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45216</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3332,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3369,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3389,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3426,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45057</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3446,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3483,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45726</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3503,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3540,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45897</v>
+        <v>44364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3560,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3599,7 +3604,7 @@
         <v>44809.47324074074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3649,14 +3654,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3674,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3711,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45092</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3731,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3768,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3782,8 +3787,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3830,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44712</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3850,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3887,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3907,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3944,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45282</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3964,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +4001,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44746</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4021,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4058,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4078,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4115,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45350</v>
+        <v>44746</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4135,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4172,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4192,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4229,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4249,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4286,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>44712</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4306,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4343,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4363,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4400,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4420,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4457,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4477,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4514,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4534,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4571,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45216</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4591,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4628,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4648,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4685,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45897</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4705,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4742,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4762,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4799,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45929</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4819,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4856,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>45441</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4876,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4913,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4923,7 +4933,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4960,14 +4970,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44517</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4990,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5027,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44895</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5047,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5084,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44895.45375</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5104,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5141,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5161,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5198,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5218,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5255,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44805</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5275,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5312,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44943</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5332,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5369,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5389,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5426,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5446,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5483,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44895</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5503,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5540,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44895</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5560,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5597,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5617,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5654,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44721</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5674,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5711,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45929</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5731,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5768,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5788,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5825,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>44895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5845,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5882,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45345</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5902,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5939,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>44721</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5959,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5986,14 +5996,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6016,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6043,14 +6053,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>44517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6073,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6100,14 +6110,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45057</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6130,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6167,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>44805</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6187,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6224,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6244,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6281,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6301,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6338,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46034</v>
+        <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6358,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6395,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>44895.45375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6415,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6452,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45092</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6472,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6509,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6529,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6556,14 +6566,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6586,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6613,14 +6623,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>44959</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6643,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6670,14 +6680,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6700,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6727,14 +6737,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>45300</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6757,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6784,14 +6794,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6814,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6841,14 +6851,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6898,14 +6908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6918,7 +6928,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6955,14 +6965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6975,7 +6985,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7012,14 +7022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7042,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7069,14 +7079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7099,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7126,14 +7136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45441</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7156,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7183,14 +7193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,7 +7213,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7240,14 +7250,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44959</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,7 +7270,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7297,14 +7307,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45329</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7327,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.9</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7354,14 +7364,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,7 +7384,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7411,14 +7421,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,7 +7441,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7468,14 +7478,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7487,13 +7497,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7530,14 +7535,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7550,7 +7555,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7587,14 +7592,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7607,7 +7612,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7644,14 +7649,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7664,7 +7669,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7701,14 +7706,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45350</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7721,7 +7726,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7758,14 +7763,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45282</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7778,7 +7783,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45028</v>
+        <v>45329</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,13 +7839,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>10.3</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45300</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45726</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>46034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 14442-2025</t>
+          <t>A 2443-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45741.51986111111</v>
+        <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -612,15 +612,103 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Större brunfladdermus
+Vanlig padda
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 14442-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45741.51986111111</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Ask
 Grönfink
@@ -628,134 +716,46 @@
 Huggorm</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 14442-2025 artfynd.xlsx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 14442-2025 karta.png", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 14442-2025 FSC-klagomål.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 14442-2025 FSC-klagomål mail.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 14442-2025 tillsynsbegäran.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 14442-2025 tillsynsbegäran mail.docx", "A 14442-2025")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 14442-2025 prioriterade fågelarter.docx", "A 14442-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 2443-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Större brunfladdermus
-Vanlig padda
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2443-2023 artfynd.xlsx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2443-2023 karta.png", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2443-2023 FSC-klagomål.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2443-2023 FSC-klagomål mail.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2443-2023 tillsynsbegäran.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2443-2023 tillsynsbegäran mail.docx", "A 2443-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 28233-2022</t>
+          <t>A 2440-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44746</v>
+        <v>44943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,19 +767,14 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -788,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -797,133 +792,138 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Blåmossa
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 28233-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Ask
 Björksplintborre
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2440-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Blåmossa
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45320</v>
+        <v>44943</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,36 +1068,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
     </row>
@@ -1111,7 +1107,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,14 +1186,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 2447-2023</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44943</v>
+        <v>45320</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1210,7 +1206,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1219,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1234,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1244,32 +1240,36 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>45282</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1711,14 +1711,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 29106-2022</t>
+          <t>A 12978-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44750.42491898148</v>
+        <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>7.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1825,14 +1825,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12978-2021</t>
+          <t>A 29106-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44271</v>
+        <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1882,14 +1882,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 29176-2021</t>
+          <t>A 22300-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44358.70075231481</v>
+        <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>23.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1939,14 +1939,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 22300-2022</t>
+          <t>A 20681-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44712</v>
+        <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>23.3</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1996,14 +1996,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13411-2022</t>
+          <t>A 29176-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44645.54630787037</v>
+        <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2053,14 +2053,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 468-2022</t>
+          <t>A 13411-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44566</v>
+        <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2110,14 +2110,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22240-2022</t>
+          <t>A 468-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44712</v>
+        <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2167,14 +2167,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15138-2022</t>
+          <t>A 22240-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44658.44114583333</v>
+        <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 28249-2021</t>
+          <t>A 15138-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44355</v>
+        <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.9</v>
+        <v>0.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2281,14 +2281,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 29101-2022</t>
+          <t>A 28249-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44750.41521990741</v>
+        <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2338,14 +2338,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20681-2022</t>
+          <t>A 52777-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44700.68586805555</v>
+        <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2395,14 +2395,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52777-2021</t>
+          <t>A 29101-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44467</v>
+        <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45350</v>
+        <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>44517</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44746</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>44895</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>44895.45375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45345</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45028</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,13 +3041,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3084,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45217</v>
+        <v>44805</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3104,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3141,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>44943</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3161,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3198,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3218,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3255,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45145</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3275,7 +3270,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3312,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45216</v>
+        <v>44895</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3332,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3369,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>44895</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3389,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3426,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45057</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3446,7 +3441,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3483,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45726</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3503,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3540,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44364</v>
+        <v>44721</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3560,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3597,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3617,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3654,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3674,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3711,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45092</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3731,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3768,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3787,13 +3782,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3830,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>45897</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3850,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3887,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3907,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3944,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45282</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3964,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4001,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4021,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4058,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45350</v>
+        <v>45145</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4078,7 +4068,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4115,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44746</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4135,7 +4125,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.4</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4172,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4192,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4229,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4249,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4286,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44712</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4306,7 +4296,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4343,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4363,7 +4353,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4400,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4420,7 +4410,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4457,14 +4447,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4477,7 +4467,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4514,14 +4504,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4534,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4571,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4591,7 +4581,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4628,14 +4618,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4648,7 +4638,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4685,14 +4675,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45897</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4695,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4742,14 +4732,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>44364</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4752,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4819,7 +4809,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4856,14 +4846,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45441</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4876,7 +4866,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4913,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4933,7 +4923,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4970,14 +4960,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4990,7 +4980,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5027,14 +5017,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>44746</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5047,7 +5037,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>7.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5084,14 +5074,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5104,7 +5094,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5141,14 +5131,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5161,7 +5151,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5198,14 +5188,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5218,7 +5208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5255,14 +5245,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5275,7 +5265,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5312,14 +5302,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5332,7 +5322,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5369,14 +5359,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5389,7 +5379,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5426,14 +5416,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5446,7 +5436,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5483,14 +5473,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>44712</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5503,7 +5493,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5540,14 +5530,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5560,7 +5550,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5597,14 +5587,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>44746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5617,7 +5607,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.2</v>
+        <v>6.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5654,14 +5644,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45350</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5674,7 +5664,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5711,14 +5701,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45929</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5731,7 +5721,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5768,14 +5758,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5788,7 +5778,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5825,14 +5815,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44895</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5845,7 +5835,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5882,14 +5872,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5892,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5939,14 +5929,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44721</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5959,7 +5949,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5996,14 +5986,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6016,7 +6006,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6053,14 +6043,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44517</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6073,7 +6063,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6110,14 +6100,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6130,7 +6120,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6167,14 +6157,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44805</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6187,7 +6177,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6224,14 +6214,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44895</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6244,7 +6234,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6281,14 +6271,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6301,7 +6291,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6338,14 +6328,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44943</v>
+        <v>45345</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6358,7 +6348,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6395,14 +6385,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44895.45375</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6415,7 +6405,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6452,14 +6442,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6472,7 +6462,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6509,14 +6499,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44895</v>
+        <v>45057</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,7 +6519,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6566,14 +6556,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6586,7 +6576,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6623,14 +6613,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44959</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6643,7 +6633,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6680,14 +6670,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6700,7 +6690,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6737,14 +6727,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45300</v>
+        <v>45092</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6757,7 +6747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6794,14 +6784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6851,14 +6841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6908,14 +6898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6965,14 +6955,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6975,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7022,14 +7012,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7042,7 +7032,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7079,14 +7069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7136,14 +7126,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7146,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7193,14 +7183,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7213,7 +7203,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7250,14 +7240,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>45329</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,7 +7260,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7307,14 +7297,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>45441</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7327,7 +7317,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7364,14 +7354,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7374,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7421,14 +7411,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7431,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7478,14 +7468,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>44959</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,14 +7525,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7545,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7592,14 +7582,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7611,8 +7601,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7649,14 +7644,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>46034</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7669,7 +7664,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7706,14 +7701,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7721,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7763,14 +7758,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7778,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7820,14 +7815,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45329</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7840,7 +7835,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7877,14 +7872,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7892,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7934,14 +7929,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45282</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7949,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7991,14 +7986,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>45028</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8010,8 +8005,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45726</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46034</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,14 +748,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2440-2023</t>
+          <t>A 28233-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44943</v>
+        <v>44746</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,14 +767,19 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -783,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -792,138 +797,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Björksplintborre
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2440-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Blåmossa
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2440-2023 artfynd.xlsx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2440-2023 karta.png", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2440-2023 FSC-klagomål.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2440-2023 FSC-klagomål mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2440-2023 tillsynsbegäran.docx", "A 2440-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2440-2023 tillsynsbegäran mail.docx", "A 2440-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 28233-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44746</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Björksplintborre
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 28233-2022 artfynd.xlsx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 28233-2022 karta.png", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 28233-2022 FSC-klagomål.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 28233-2022 FSC-klagomål mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 28233-2022 tillsynsbegäran.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 28233-2022 tillsynsbegäran mail.docx", "A 28233-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2447-2023</t>
+          <t>A 3543-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44943</v>
+        <v>45320</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,32 +1068,36 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
+          <t>Spillkråka
+Dolkstekelsglasvinge</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1111,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,14 +1190,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3543-2024</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45320</v>
+        <v>44943</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1206,7 +1210,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1215,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1230,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1240,36 +1244,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Dolkstekelsglasvinge</t>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 3543-2024 artfynd.xlsx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 3543-2024 karta.png", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 3543-2024 FSC-klagomål.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 3543-2024 FSC-klagomål mail.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 3543-2024 tillsynsbegäran.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 3543-2024 tillsynsbegäran mail.docx", "A 3543-2024")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/fåglar/A 3543-2024 prioriterade fågelarter.docx", "A 3543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>45282</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2110,14 +2110,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 468-2022</t>
+          <t>A 22240-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44566</v>
+        <v>44712</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2167,14 +2167,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22240-2022</t>
+          <t>A 15138-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44712</v>
+        <v>44658.44114583333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15138-2022</t>
+          <t>A 468-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44658.44114583333</v>
+        <v>44566</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2338,14 +2338,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52777-2021</t>
+          <t>A 29101-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44467</v>
+        <v>44750.41521990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2395,14 +2395,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29101-2022</t>
+          <t>A 69614-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44750.41521990741</v>
+        <v>44532</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2452,14 +2452,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 69614-2021</t>
+          <t>A 69628-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 69628-2021</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44532</v>
+        <v>45350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26345-2022</t>
+          <t>A 52777-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44735</v>
+        <v>44467</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21133-2022</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44704</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 26345-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45217</v>
+        <v>44735</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 21133-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44517</v>
+        <v>44704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>44746</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44895</v>
+        <v>45345</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44895.45375</v>
+        <v>45217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>45216</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44805</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44943</v>
+        <v>44959</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>45092</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3269,8 +3269,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3307,14 +3312,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44895</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3332,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3364,14 +3369,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44895</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3389,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>10.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3421,14 +3426,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>45028</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3440,8 +3445,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3478,14 +3488,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3508,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3535,14 +3545,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44721</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3565,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3592,14 +3602,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45300</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3649,14 +3659,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3679,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3706,14 +3716,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3736,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3763,14 +3773,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3793,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3820,14 +3830,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45897</v>
+        <v>44364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3850,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3877,14 +3887,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3907,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3934,14 +3944,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45057</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3964,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3991,14 +4001,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45145</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4021,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4048,14 +4058,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45145</v>
+        <v>45726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4078,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4105,14 +4115,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4135,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4162,14 +4172,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4192,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4219,14 +4229,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4249,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4286,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4306,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4343,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4353,7 +4363,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4400,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4420,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4447,14 +4457,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>44712</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4467,7 +4477,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4504,14 +4514,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4524,7 +4534,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4571,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>45897</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4581,7 +4591,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4618,14 +4628,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4638,7 +4648,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4675,14 +4685,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4695,7 +4705,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4732,14 +4742,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44364</v>
+        <v>45282</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4752,7 +4762,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4789,14 +4799,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4809,7 +4819,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4846,14 +4856,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>45350</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4866,7 +4876,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4903,14 +4913,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4923,7 +4933,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4960,14 +4970,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45929</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4980,7 +4990,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5017,14 +5027,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44746</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5037,7 +5047,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5074,14 +5084,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5094,7 +5104,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5131,14 +5141,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5161,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5188,14 +5198,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5218,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5245,14 +5255,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5275,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5302,14 +5312,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5332,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5359,14 +5369,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5389,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5416,14 +5426,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5446,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5473,14 +5483,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44712</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5503,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5530,14 +5540,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5560,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5587,14 +5597,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44746</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5617,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5644,14 +5654,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45350</v>
+        <v>45929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5674,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5701,14 +5711,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5731,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5758,14 +5768,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45216</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5788,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5815,14 +5825,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>44895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5845,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5872,14 +5882,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5902,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5929,14 +5939,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>44721</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5959,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5986,14 +5996,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6016,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6043,14 +6053,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>44517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6073,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6100,14 +6110,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6130,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6157,14 +6167,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>44805</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6187,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6214,14 +6224,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6244,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6271,14 +6281,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6301,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6328,14 +6338,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45345</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6358,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6385,14 +6395,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6415,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6442,14 +6452,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>44895.45375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6472,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6499,14 +6509,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45057</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6529,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6556,14 +6566,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>44895</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6586,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6613,14 +6623,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6643,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6670,14 +6680,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6700,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6727,14 +6737,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45092</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6757,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6784,14 +6794,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6814,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6841,14 +6851,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>44746</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6898,14 +6908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6918,7 +6928,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6955,14 +6965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6975,7 +6985,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7012,14 +7022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7042,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7069,14 +7079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7099,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7126,14 +7136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7156,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7183,14 +7193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,7 +7213,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7240,14 +7250,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45329</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,7 +7270,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7297,14 +7307,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45441</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7327,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7354,14 +7364,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>45441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,7 +7384,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7411,14 +7421,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,7 +7441,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7468,14 +7478,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44959</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7488,7 +7498,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7525,14 +7535,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,7 +7555,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7582,14 +7592,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,13 +7611,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7644,14 +7649,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46034</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7664,7 +7669,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7701,14 +7706,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7721,7 +7726,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7758,14 +7763,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7778,7 +7783,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7835,7 +7840,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45350</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,14 +7934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45282</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45028</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8005,13 +8010,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>10.3</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45300</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>45329</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45726</v>
+        <v>46034</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44746</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44943</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45320</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,14 +1104,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 22268-2022</t>
+          <t>A 2447-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44712</v>
+        <v>44943</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.6</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1158,121 +1158,121 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Dolkstekelsglasvinge
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 22268-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LERUM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Havstulpanlav
 Stubbspretmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 22268-2022 artfynd.xlsx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 22268-2022 karta.png", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 22268-2022 FSC-klagomål.docx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 22268-2022 FSC-klagomål mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 22268-2022 tillsynsbegäran.docx", "A 22268-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 22268-2022 tillsynsbegäran mail.docx", "A 22268-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 2447-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LERUM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Dolkstekelsglasvinge
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/artfynd/A 2447-2023 artfynd.xlsx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/kartor/A 2447-2023 karta.png", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomål/A 2447-2023 FSC-klagomål.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/klagomålsmail/A 2447-2023 FSC-klagomål mail.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsyn/A 2447-2023 tillsynsbegäran.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1441/tillsynsmail/A 2447-2023 tillsynsbegäran mail.docx", "A 2447-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45282</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2110,14 +2110,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22240-2022</t>
+          <t>A 468-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44712</v>
+        <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2167,14 +2167,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15138-2022</t>
+          <t>A 22240-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44658.44114583333</v>
+        <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 468-2022</t>
+          <t>A 15138-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44566</v>
+        <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2338,14 +2338,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 29101-2022</t>
+          <t>A 52777-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44750.41521990741</v>
+        <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2395,14 +2395,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 69614-2021</t>
+          <t>A 29101-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44532</v>
+        <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2452,14 +2452,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 69628-2021</t>
+          <t>A 69614-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7989-2024</t>
+          <t>A 69628-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45350</v>
+        <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52777-2021</t>
+          <t>A 26345-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44467</v>
+        <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17071-2024</t>
+          <t>A 21133-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45412.47715277778</v>
+        <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26345-2022</t>
+          <t>A 28103-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44735</v>
+        <v>44746</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 21133-2022</t>
+          <t>A 50622-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44704</v>
+        <v>45217</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28103-2022</t>
+          <t>A 7429-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44746</v>
+        <v>45345</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2851,14 +2851,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7429-2024</t>
+          <t>A 50405-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45345</v>
+        <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2908,14 +2908,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50622-2023</t>
+          <t>A 50410-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45217</v>
+        <v>45216.66064814815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2965,14 +2965,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17861-2021</t>
+          <t>A 7989-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44301.31224537037</v>
+        <v>45350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50405-2023</t>
+          <t>A 41836-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45216</v>
+        <v>44828.34606481482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50410-2023</t>
+          <t>A 17071-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45216.66064814815</v>
+        <v>45412.47715277778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5359-2023</t>
+          <t>A 28118-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44959</v>
+        <v>45476.64726851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26568-2023</t>
+          <t>A 28139-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45092</v>
+        <v>45476.69767361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 42526-2024</t>
+          <t>A 26073-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45565.56991898148</v>
+        <v>45805.3218287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3269,13 +3269,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3312,14 +3307,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41836-2022</t>
+          <t>A 38739-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44828.34606481482</v>
+        <v>45887.37248842593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3332,7 +3327,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3369,14 +3364,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48941-2024</t>
+          <t>A 38743-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45594.41935185185</v>
+        <v>45887.37728009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3389,7 +3384,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>10.3</v>
+        <v>0.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3426,14 +3421,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16648-2023</t>
+          <t>A 14409-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45028</v>
+        <v>45741.47278935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3445,13 +3440,8 @@
           <t>LERUM</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3488,14 +3478,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13156-2024</t>
+          <t>A 39113-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45386.3653587963</v>
+        <v>45548.58054398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3508,7 +3498,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3545,14 +3535,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40709-2023</t>
+          <t>A 27367-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45170.62814814815</v>
+        <v>45812.64487268519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3565,7 +3555,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3602,14 +3592,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 790-2024</t>
+          <t>A 28029-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45300</v>
+        <v>45817.6285300926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3622,7 +3612,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3659,14 +3649,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59758-2024</t>
+          <t>A 28053-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45639.55207175926</v>
+        <v>45817.65983796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3679,7 +3669,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3716,14 +3706,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28118-2024</t>
+          <t>A 35199-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45476.64726851852</v>
+        <v>45145</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3736,7 +3726,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3773,14 +3763,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28139-2024</t>
+          <t>A 29394-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45476.69767361111</v>
+        <v>45824.60599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3793,7 +3783,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3830,14 +3820,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30518-2021</t>
+          <t>A 40848-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44364</v>
+        <v>45897</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3850,7 +3840,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3887,14 +3877,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39113-2024</t>
+          <t>A 13100-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45548.58054398148</v>
+        <v>45734.67028935185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3907,7 +3897,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3944,14 +3934,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20570-2023</t>
+          <t>A 31687-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45057</v>
+        <v>45834.39827546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3964,7 +3954,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4001,14 +3991,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35199-2023</t>
+          <t>A 11124-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45145</v>
+        <v>45723.64142361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4021,7 +4011,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4058,14 +4048,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11232-2025</t>
+          <t>A 32095-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45726</v>
+        <v>45835.46107638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4078,7 +4068,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4115,14 +4105,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37441-2022</t>
+          <t>A 32093-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44809.47324074074</v>
+        <v>45835.45971064815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4172,14 +4162,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36415-2023</t>
+          <t>A 26568-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45152.57416666667</v>
+        <v>45092</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4192,7 +4182,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4229,14 +4219,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38739-2025</t>
+          <t>A 42526-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45887.37248842593</v>
+        <v>45565.56991898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,8 +4238,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4286,14 +4281,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38743-2025</t>
+          <t>A 43043-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45887.37728009259</v>
+        <v>45909.55841435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4306,7 +4301,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4343,14 +4338,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14409-2025</t>
+          <t>A 48941-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45741.47278935185</v>
+        <v>45594.41935185185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4363,7 +4358,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>10.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4400,14 +4395,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10410-2022</t>
+          <t>A 16648-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44623.45605324074</v>
+        <v>45028</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,8 +4414,13 @@
           <t>LERUM</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4457,14 +4457,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22223-2022</t>
+          <t>A 13156-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44712</v>
+        <v>45386.3653587963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4514,14 +4514,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20210-2023</t>
+          <t>A 44778-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45055.61012731482</v>
+        <v>45917.86079861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4571,14 +4571,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40848-2025</t>
+          <t>A 44780-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45897</v>
+        <v>45917.8653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4628,14 +4628,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14067-2024</t>
+          <t>A 45396-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45392.56983796296</v>
+        <v>45922.41402777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4685,14 +4685,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47398-2024</t>
+          <t>A 45483-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45587.47180555556</v>
+        <v>45922.54346064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4742,14 +4742,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 64866-2023</t>
+          <t>A 45132-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45282</v>
+        <v>45919.44319444444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4799,14 +4799,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11124-2025</t>
+          <t>A 45363-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45723.64142361111</v>
+        <v>45922.38008101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4856,14 +4856,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7990-2024</t>
+          <t>A 46596-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45350</v>
+        <v>45926.39857638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4913,14 +4913,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43043-2025</t>
+          <t>A 47134-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45909.55841435185</v>
+        <v>45929.69758101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50420-2023</t>
+          <t>A 46957-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45216.66917824074</v>
+        <v>45929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5027,14 +5027,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44778-2025</t>
+          <t>A 47599-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45917.86079861111</v>
+        <v>45931.45528935185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5084,14 +5084,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44780-2025</t>
+          <t>A 57178-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45917.8653125</v>
+        <v>44895</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5141,14 +5141,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45396-2025</t>
+          <t>A 57154-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45922.41402777778</v>
+        <v>44895.58527777778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5198,14 +5198,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45483-2025</t>
+          <t>A 23592-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45922.54346064815</v>
+        <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5255,14 +5255,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45132-2025</t>
+          <t>A 66008-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45919.44319444444</v>
+        <v>44517.57920138889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5312,14 +5312,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45363-2025</t>
+          <t>A 66104-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45922.38008101852</v>
+        <v>44517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5369,14 +5369,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26073-2025</t>
+          <t>A 66107-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45805.3218287037</v>
+        <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5426,14 +5426,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50397-2023</t>
+          <t>A 36756-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45216.6400462963</v>
+        <v>44805</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5483,14 +5483,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46596-2025</t>
+          <t>A 57186-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45926.39857638889</v>
+        <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5540,14 +5540,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47134-2025</t>
+          <t>A 7272-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45929.69758101852</v>
+        <v>44970.65201388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5597,14 +5597,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27367-2025</t>
+          <t>A 2450-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45812.64487268519</v>
+        <v>44943</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5654,14 +5654,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46957-2025</t>
+          <t>A 30518-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45929</v>
+        <v>44364</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5711,14 +5711,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47599-2025</t>
+          <t>A 57083-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45931.45528935185</v>
+        <v>44895.45375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5768,14 +5768,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28029-2025</t>
+          <t>A 57120-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45817.6285300926</v>
+        <v>44895.54767361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5825,14 +5825,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57178-2022</t>
+          <t>A 57195-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>44895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5882,14 +5882,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57154-2022</t>
+          <t>A 51900-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44895.58527777778</v>
+        <v>44462.90412037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5939,14 +5939,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 23592-2022</t>
+          <t>A 47866-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44721</v>
+        <v>45588.69111111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5996,14 +5996,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 66008-2021</t>
+          <t>A 20570-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44517.57920138889</v>
+        <v>45057</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6053,14 +6053,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 66104-2021</t>
+          <t>A 11232-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44517</v>
+        <v>45726</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6110,14 +6110,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 66107-2021</t>
+          <t>A 37441-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44517.71121527778</v>
+        <v>44809.47324074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6167,14 +6167,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36756-2022</t>
+          <t>A 36415-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44805</v>
+        <v>45152.57416666667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6224,14 +6224,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 57186-2022</t>
+          <t>A 14067-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44895</v>
+        <v>45392.56983796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6281,14 +6281,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7272-2023</t>
+          <t>A 47398-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44970.65201388889</v>
+        <v>45587.47180555556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6338,14 +6338,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28053-2025</t>
+          <t>A 64866-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45817.65983796296</v>
+        <v>45282</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6395,14 +6395,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2450-2023</t>
+          <t>A 7990-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44943</v>
+        <v>45350</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6452,14 +6452,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57083-2022</t>
+          <t>A 55429-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44895.45375</v>
+        <v>45971.47983796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6509,14 +6509,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57120-2022</t>
+          <t>A 56672-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44895.54767361111</v>
+        <v>45975.69769675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6566,14 +6566,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57195-2022</t>
+          <t>A 58073-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44895</v>
+        <v>45982.55194444444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6623,14 +6623,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51900-2021</t>
+          <t>A 58086-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44462.90412037037</v>
+        <v>45982.57108796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6680,14 +6680,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29394-2025</t>
+          <t>A 58042-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45824.60599537037</v>
+        <v>45982.50081018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6737,14 +6737,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13100-2025</t>
+          <t>A 10410-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45734.67028935185</v>
+        <v>44623.45605324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6794,14 +6794,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21836-2022</t>
+          <t>A 22223-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44710.9250462963</v>
+        <v>44712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6851,14 +6851,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 28089-2022</t>
+          <t>A 20210-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44746</v>
+        <v>45055.61012731482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.4</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6908,14 +6908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31687-2025</t>
+          <t>A 61628-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45834.39827546296</v>
+        <v>46002.40396990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6965,14 +6965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32095-2025</t>
+          <t>A 61766-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45835.46107638889</v>
+        <v>46002.63146990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7022,14 +7022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32093-2025</t>
+          <t>A 61762-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45835.45971064815</v>
+        <v>46002.62560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7079,14 +7079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 55429-2025</t>
+          <t>A 50420-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45971.47983796296</v>
+        <v>45216.66917824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7136,14 +7136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56672-2025</t>
+          <t>A 50397-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45975.69769675926</v>
+        <v>45216.6400462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7193,14 +7193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58073-2025</t>
+          <t>A 62747-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45982.55194444444</v>
+        <v>46008.57900462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7250,14 +7250,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58086-2025</t>
+          <t>A 62769-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45982.57108796296</v>
+        <v>46008.59997685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7307,14 +7307,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58042-2025</t>
+          <t>A 62774-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45982.50081018519</v>
+        <v>46008.60609953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7364,14 +7364,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24163-2024</t>
+          <t>A 62736-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45441</v>
+        <v>46008.56954861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7421,14 +7421,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47944-2024</t>
+          <t>A 62755-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45589.35490740741</v>
+        <v>46008.58908564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7478,14 +7478,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47866-2024</t>
+          <t>A 62757-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45588.69111111111</v>
+        <v>46008.59184027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7535,14 +7535,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20680-2022</t>
+          <t>A 4883-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44700.6828125</v>
+        <v>45329</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7592,14 +7592,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61628-2025</t>
+          <t>A 21836-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46002.40396990741</v>
+        <v>44710.9250462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7649,14 +7649,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61766-2025</t>
+          <t>A 28089-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46002.63146990741</v>
+        <v>44746</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7706,14 +7706,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61762-2025</t>
+          <t>A 7558-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46002.62560185185</v>
+        <v>46059.88509259259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7763,14 +7763,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28157-2022</t>
+          <t>A 2420-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44746.55107638889</v>
+        <v>46034</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7820,14 +7820,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62747-2025</t>
+          <t>A 2335-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46008.57900462963</v>
+        <v>46036.61236111111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62769-2025</t>
+          <t>A 24163-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46008.59997685185</v>
+        <v>45441</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62774-2025</t>
+          <t>A 47944-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46008.60609953704</v>
+        <v>45589.35490740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 62736-2025</t>
+          <t>A 20680-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46008.56954861111</v>
+        <v>44700.6828125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62755-2025</t>
+          <t>A 28157-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46008.58908564815</v>
+        <v>44746.55107638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 62757-2025</t>
+          <t>A 17861-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46008.59184027778</v>
+        <v>44301.31224537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4883-2024</t>
+          <t>A 5359-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45329</v>
+        <v>44959</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7558-2026</t>
+          <t>A 40709-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46059.88509259259</v>
+        <v>45170.62814814815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2420-2026</t>
+          <t>A 790-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46034</v>
+        <v>45300</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2335-2026</t>
+          <t>A 59758-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46036.61236111111</v>
+        <v>45639.55207175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45741.51986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44746</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44943</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45968.3796412037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45320</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44943</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45282</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44658</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44943.40148148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44790</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44271</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44757.64813657408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44750.42491898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44700.68586805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44358.70075231481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44645.54630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44712</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44658.44114583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44750.41521990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44532</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44735</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44746</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>45217</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45345</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45216.66064814815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44828.34606481482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45412.47715277778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45476.64726851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45476.69767361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45805.3218287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45887.37248842593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45887.37728009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45741.47278935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45548.58054398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45812.64487268519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45817.6285300926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45817.65983796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45145</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45824.60599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>45897</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45734.67028935185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45834.39827546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>45723.64142361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45835.46107638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>45835.45971064815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>45092</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45565.56991898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45909.55841435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45594.41935185185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45028</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45386.3653587963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45917.86079861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45917.8653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45922.41402777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45922.54346064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45919.44319444444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>45922.38008101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45926.39857638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45929.69758101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45931.45528935185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44895</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44895.58527777778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44517.57920138889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>44517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>44517.71121527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44805</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>44895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>44970.65201388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44943</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>44364</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44895.45375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>44895.54767361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>44895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44462.90412037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45588.69111111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45057</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45726</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44809.47324074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>45152.57416666667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>45392.56983796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45587.47180555556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45282</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45350</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45971.47983796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45975.69769675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45982.55194444444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>45982.57108796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>45982.50081018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>44623.45605324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>44712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>45055.61012731482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>46002.40396990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>46002.63146990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>46002.62560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45216.66917824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45216.6400462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>46008.57900462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>46008.59997685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>46008.60609953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>46008.56954861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>46008.58908564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>46008.59184027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>45329</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44710.9250462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44746</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>46059.88509259259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>46034</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>46036.61236111111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45441</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45589.35490740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>44700.6828125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>44746.55107638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>44301.31224537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44959</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45170.62814814815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45300</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45639.55207175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
